--- a/src/log/address-book.xlsx
+++ b/src/log/address-book.xlsx
@@ -349,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2000"/>
+  <dimension ref="A1:H2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,6 +388,16 @@
           <t>Телефон</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Дата создания</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Дата обновления</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
